--- a/BalanceSheet/CAT_bal.xlsx
+++ b/BalanceSheet/CAT_bal.xlsx
@@ -4859,7 +4859,7 @@
         <v>29963000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>29999000000.0</v>
+        <v>29373000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>30000000000.0</v>
@@ -4986,7 +4986,7 @@
         <v>37093000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>38291000000.0</v>
+        <v>37657000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>37906000000.0</v>
